--- a/resumen.xlsx
+++ b/resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="765" windowWidth="11430" windowHeight="7260"/>
+    <workbookView xWindow="9210" yWindow="15" windowWidth="10545" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -106,12 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,28 +500,28 @@
       <c r="C2">
         <v>109863</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>182372.58</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>266.42999999999995</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>182639.00999999998</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>69213.69</v>
       </c>
       <c r="H2" s="1">
         <v>48055.088500000005</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>3922.67</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>4058.92</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>9109</v>
       </c>
       <c r="L2" s="1">
@@ -547,28 +545,28 @@
       <c r="C3">
         <v>89302</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>148241.32</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>211.79</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>148453.11000000002</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>56260.26</v>
       </c>
       <c r="H3" s="1">
         <v>45478.75</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>4099.18</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>2717.56</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>6438</v>
       </c>
       <c r="L3" s="1">
@@ -592,28 +590,28 @@
       <c r="C4">
         <v>98227</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>163056.81999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>108.31</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>163165.12999999998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>61883.01</v>
       </c>
       <c r="H4" s="1">
         <v>45600.0625</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>4520.9400000000005</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>1767.6399999999999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>8964</v>
       </c>
       <c r="L4" s="1">
@@ -659,7 +657,7 @@
       <c r="J5" s="1">
         <v>4274.4400000000005</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>4729</v>
       </c>
       <c r="L5" s="1">
@@ -683,37 +681,37 @@
       <c r="C6">
         <v>105414</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>174987.24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>149.62</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>175136.86</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>66410.820000000007</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>48893.07450000001</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>4913</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>4357.57</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>9245</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>133819.46450000003</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>41317.395499999955</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>5936.4073994252813</v>
       </c>
     </row>
@@ -727,37 +725,37 @@
       <c r="C7">
         <v>101252</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>168078.31999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>146.11999999999995</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>168224.43999999997</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>63788.76</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>47153.397999999994</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>5406</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>6508.5099999999993</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>8110</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>130966.66799999999</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>37257.771999999983</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>5353.1281609195375</v>
       </c>
     </row>
@@ -771,37 +769,37 @@
       <c r="C8">
         <v>113668</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>188688.88</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>163.28999999999996</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>188852.17</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>71610.84</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>46660.665000000001</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>4948.75</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>4453.88</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>10867.784850000033</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>138541.91985000003</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>50310.250149999978</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>7228.4842169540198</v>
       </c>
     </row>
@@ -815,37 +813,37 @@
       <c r="C9">
         <v>104501</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>173471.95879999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>169.79</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>173641.7488</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>65835.743399999992</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>50589.470999999998</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>4834.9530000000013</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>5009.24</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>8206.4021000000139</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>134475.80950000003</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>39165.939299999969</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>5627.2901293103405</v>
       </c>
     </row>
@@ -859,37 +857,37 @@
       <c r="C10">
         <v>104494</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>173460.03999999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>64.649999999999991</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>173524.68999999997</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>65831.22</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>46843.078000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>5448.77</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>2137.54</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>9557</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>129817.60800000001</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>43707.081999999966</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>6279.7531609195357</v>
       </c>
     </row>
@@ -903,37 +901,37 @@
       <c r="C11">
         <v>105688</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>175442.08</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>192.14</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>175634.22</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>66583.44</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>45509.278499999993</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>5448.75</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>12254.119999999999</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>9159</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>138954.58849999998</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>36679.631500000018</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>5270.0619971264396</v>
       </c>
     </row>
@@ -947,37 +945,37 @@
       <c r="C12">
         <v>100507</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>166841.62</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>178.64</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>167020.26</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>63319.41</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>43577.877</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>5987.01</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>8373.61</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>2453.2339000000302</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>123711.14090000003</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>43309.119099999982</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>6222.5745833333303</v>
       </c>
     </row>
@@ -991,37 +989,37 @@
       <c r="C13">
         <v>124468</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>206616.87999999998</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>148.46999999999997</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>206765.34999999998</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>78414.84</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>43871.196000000004</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>6023.18</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>19633.120000000003</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>14332</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>162274.33599999998</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>44491.013999999996</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>6392.3870689655168</v>
       </c>
     </row>
@@ -1035,37 +1033,37 @@
       <c r="C14">
         <v>105385</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>174939.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>143.79999999999998</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>175082.9</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>66392.55</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>45253.810000000005</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>6066.9700000000012</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>5417.7199999999993</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>12175</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>135306.05000000002</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>39776.849999999977</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>5715.0646551724103</v>
       </c>
     </row>
@@ -1079,37 +1077,37 @@
       <c r="C15">
         <v>119713</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>198723.58</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>131.31</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>198854.88999999998</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>75419.19</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>43882.43</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>5569.869999999999</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>5556.32</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>14203</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>144630.81</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>54224.079999999987</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>7790.8160919540214</v>
       </c>
     </row>
@@ -1123,37 +1121,37 @@
       <c r="C16">
         <v>142912</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>237233.91999999998</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>245.63</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>237479.55</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>90034.559999999998</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>55231.049999999996</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>5343.25</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>7696.8000000000011</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>19097</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>177402.65999999997</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>60076.890000000014</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>8631.7370689655199</v>
       </c>
     </row>
@@ -1167,37 +1165,37 @@
       <c r="C17">
         <v>108700</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>180442</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>106.66</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>180548.66</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>68481</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>51677.340000000004</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>5572.7900000000009</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>7893.88</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>7587</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>141212.01</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>39336.649999999994</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>5651.8175287356316</v>
       </c>
     </row>
@@ -1211,37 +1209,37 @@
       <c r="C18">
         <v>102697</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>170477.02</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>154.96999999999997</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>170631.99</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>64699.11</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>50130.579999999994</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>6727.8600000000006</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>5769.85</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>8788</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>136115.40000000002</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>34516.589999999967</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>4959.280172413788</v>
       </c>
     </row>
@@ -1255,37 +1253,37 @@
       <c r="C19">
         <v>100130</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>166215.79999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>93.16</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>166308.96</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>63081.9</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>50331.193500000008</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>9011.5</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>3685.58</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>7756</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>133866.17350000003</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>32442.786499999958</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>4661.3198994252816</v>
       </c>
     </row>
@@ -1299,37 +1297,37 @@
       <c r="C20">
         <v>104549</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>173551.34</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>111.32</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>173662.66</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>65865.87</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>51706.428499999995</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>8299.43</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>3472.6000000000004</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>8775</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>138119.3285</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>35543.3315</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>5106.8005028735633</v>
       </c>
       <c r="O20">
@@ -1355,37 +1353,37 @@
       <c r="C21">
         <v>133137</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>221007.41999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>142.63</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>221150.05</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>83876.31</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>52246.5285</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>8299.4299999999985</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>7700.079999999999</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>11147.853600000019</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>163270.20210000002</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>57879.847899999964</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>8316.0701005747069</v>
       </c>
       <c r="O21">
@@ -1411,37 +1409,37 @@
       <c r="C22">
         <v>147919</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>245545.53999999998</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>112.66</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>245658.19999999998</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>93188.97</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>56432.774000000005</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>8127.9700000000012</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>8716.4</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>12954</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>179420.114</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>66238.085999999981</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>9516.9663793103427</v>
       </c>
       <c r="O22">
@@ -1467,37 +1465,37 @@
       <c r="C23">
         <v>123219</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>204543.53999999998</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>62.649999999999991</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>204606.18999999997</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>77627.97</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>55936.229999999996</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>8160.260000000002</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>12574.64</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>10844</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>165143.10000000003</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>39463.089999999938</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>5669.9841954022904</v>
       </c>
       <c r="O23">
@@ -1523,37 +1521,37 @@
       <c r="C24">
         <v>97313</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>161539.57999999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>34.33</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>161573.90999999997</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>61307.19</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>48786.427000000003</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>8021.6</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>2367.4</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>14637.271300905746</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>135119.88830090573</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>26454.021699094243</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>3800.8651866514715</v>
       </c>
       <c r="O24">
@@ -1579,37 +1577,37 @@
       <c r="C25">
         <v>164196</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>272565.36</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>167.79999999999998</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>272733.15999999997</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>103443.48</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>53436.197999999997</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>8160.260000000002</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>31990.63</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>23744</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>220774.568</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>51958.591999999975</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>7465.314942528732</v>
       </c>
       <c r="O25">
@@ -1635,37 +1633,37 @@
       <c r="C26">
         <v>137363</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>228022.58</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>79.649999999999991</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>228102.22999999998</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>86538.69</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>57787.641000000003</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>8193.1713333333319</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>7748.9400000000005</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>16114</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>176382.44233333334</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>51719.787666666642</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>7431.0039750957822</v>
       </c>
       <c r="O26">
@@ -1691,37 +1689,37 @@
       <c r="C27">
         <v>111217</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>184620.22</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>84.149999999999991</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>184704.37</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>70066.710000000006</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>55404.386500000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>8298.91</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>6885.2800000000007</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>10759</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>151414.28650000002</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>33290.083499999979</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>4783.0579741379279</v>
       </c>
       <c r="O27">
@@ -1747,37 +1745,37 @@
       <c r="C28">
         <v>67017</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>111248.22</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>58.83</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>111307.05</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>42220.71</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>48744.406999999999</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>8298.91</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>1874</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>6396</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>107534.027</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>3773.023000000001</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>542.10100574712658</v>
       </c>
       <c r="O28">
@@ -1803,37 +1801,37 @@
       <c r="C29">
         <v>13620</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>22609.200000000001</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>39.659999999999997</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>22648.86</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>9533.7900000000009</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>30771.030000000002</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>8021.5900000000011</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>372.68134732624361</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>48699.091347326255</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>-26050.231347326255</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>-3742.8493315123928</v>
       </c>
       <c r="O29">
@@ -1859,37 +1857,37 @@
       <c r="C30">
         <v>26905</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>44662.299999999996</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>16.329999999999998</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>44678.63</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>16131.87</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>30149.420000000002</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>8166.3204920000007</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>1152</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>55599.610492</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>-10920.980492000002</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>-1569.106392528736</v>
       </c>
       <c r="O30">
@@ -1915,37 +1913,37 @@
       <c r="C31">
         <v>46034</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>76416.44</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>76416.44</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>31568.75</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>31210.219999999998</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>8166.3160000000007</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>2861.5</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>3286</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>77092.786000000007</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>-676.34600000000501</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>-97.176149425288074</v>
       </c>
       <c r="O31">
@@ -1971,37 +1969,37 @@
       <c r="C32">
         <v>73234</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>121568.43999999999</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>63.489999999999995</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>121631.93</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>49758.94</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>38813.379999999997</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>4805.08</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>6990.9</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>5324</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>105692.3</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>15939.62999999999</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>2290.1767241379298</v>
       </c>
       <c r="O32">
@@ -2027,37 +2025,37 @@
       <c r="C33">
         <v>79268</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>131584.88</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>12.329999999999998</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>131597.21</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>62682.819999999992</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>46418.780000000006</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>6406.7999999999993</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>2365</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>4450</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>122323.40000000001</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>9273.8099999999831</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>1332.4439655172389</v>
       </c>
       <c r="O33">
@@ -2083,37 +2081,37 @@
       <c r="C34">
         <v>86796</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>144081.35999999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>30.83</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>144112.18999999997</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>59062.390000000007</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>47459.470000000008</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>8173.9700000000012</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>12017.900000000001</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>4701</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>131414.73000000001</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>12697.459999999963</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>1824.3477011494199</v>
       </c>
       <c r="O34">
@@ -2139,37 +2137,37 @@
       <c r="C35">
         <v>95229</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>158080.13999999998</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>74.97999999999999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>158155.12</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>61160.259999999995</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>49170.092499999999</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>8151.32</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>26929.599999999999</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>2017</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>147428.27249999999</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>10726.847500000003</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>1541.2137212643684</v>
       </c>
       <c r="O35">
@@ -2195,37 +2193,37 @@
       <c r="C36">
         <v>94996</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>157693.35999999999</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>122.64999999999999</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>157816.00999999998</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>61566.96</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>44797.268000000004</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>8127.52</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>9347.880000000001</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>6458.6713000000454</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>130298.29930000006</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>27517.710699999923</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>3953.6940660919431</v>
       </c>
       <c r="O36">
@@ -2251,37 +2249,37 @@
       <c r="C37">
         <v>113865</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>189015.9</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>104.66</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>189120.56</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>58110.869999999995</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>47764.227000000006</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>8208.0800000000017</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>35307.1</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>12713</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>162103.277</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>27017.282999999996</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>3881.7935344827579</v>
       </c>
       <c r="O37">
@@ -2307,37 +2305,37 @@
       <c r="C38">
         <v>75684</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>125635.43999999999</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>30.659999999999997</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>125666.09999999999</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>45304.11</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>46195.548999999992</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>8197.91</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>1208.2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>8951</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>109856.76899999999</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>15809.331000000006</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>2271.4556034482766</v>
       </c>
       <c r="O38">
@@ -2363,37 +2361,37 @@
       <c r="C39">
         <v>61864</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>102694.23999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>76.649999999999991</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>102770.88999999998</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>37401.339999999997</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>44441.275999999998</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>8208.7800000000007</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>5471.4800000000005</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>6446</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="1">
         <v>101968.87599999999</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="1">
         <v>802.01399999999558</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <v>115.23189655172351</v>
       </c>
       <c r="O39">
@@ -2419,37 +2417,37 @@
       <c r="C40">
         <v>79750</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>132385</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>38.83</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>132423.82999999999</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>48196.26</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>44720.119999999995</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>8193.36</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>4744.1000000000004</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>10182</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <v>116035.84000000001</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="1">
         <v>16387.989999999976</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <v>2354.5962643678126</v>
       </c>
       <c r="O40">
@@ -2475,37 +2473,37 @@
       <c r="C41">
         <v>74129</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>123054.14</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>51.83</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>123105.97</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>42540.32</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>42802.781500000005</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>8148.91</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>4805.1000000000004</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>9039</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="1">
         <v>107336.11150000001</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <v>15769.858499999988</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="1">
         <v>2265.7842672413776</v>
       </c>
       <c r="O41">
@@ -2531,37 +2529,37 @@
       <c r="C42">
         <v>85917</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>142622.22</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>39.659999999999997</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>142661.88</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>42238.44</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>44950.844500000007</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>8297.61</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>4054.2</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>12726</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="1">
         <v>112267.09450000001</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="1">
         <v>30394.785499999998</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="1">
         <v>4367.0668821839081</v>
       </c>
       <c r="O42">
@@ -2587,37 +2585,37 @@
       <c r="C43">
         <v>77399</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>128482.34</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>36</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>128518.34</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>41627.49</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>46768.482499999998</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>8551.41</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>1805.8</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>10698</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="1">
         <v>109451.18250000001</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <v>19067.157499999987</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="1">
         <v>2739.5341235632163</v>
       </c>
       <c r="O43">
@@ -2643,37 +2641,37 @@
       <c r="C44">
         <v>85946</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>142670.35999999999</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>71.97999999999999</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>142742.34</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>45215.55</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>43617.637500000004</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>8095.4000000000015</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>8358.5999999999985</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>12303</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="1">
         <v>117590.1875</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="1">
         <v>25152.152499999997</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="1">
         <v>3613.8150143678158</v>
       </c>
       <c r="O44">
@@ -2699,37 +2697,37 @@
       <c r="C45">
         <v>87684</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>145555.44</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>56.489999999999995</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>145611.93</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>54995.87</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>44160.260999999999</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>7538.760000000002</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>2172.1999999999998</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>10600</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="1">
         <v>119467.091</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="1">
         <v>26144.838999999993</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="1">
         <v>3756.4423850574703</v>
       </c>
       <c r="O45">
@@ -2755,37 +2753,37 @@
       <c r="C46">
         <v>68754</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>114131.64</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>110.63999999999999</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>114242.28</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>41685.339999999997</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>42107.748499999994</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>7616.9</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>3914</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>7362</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="1">
         <v>102685.98849999998</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="1">
         <v>11556.291500000021</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="1">
         <v>1660.3867097701179</v>
       </c>
       <c r="O46">
@@ -2811,37 +2809,37 @@
       <c r="C47">
         <v>56384</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>93597.440000000002</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>53.989999999999995</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>93651.430000000008</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>27864.53</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>42374.6</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>7576.67</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>6984.89</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>5993</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <v>90793.69</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="1">
         <v>2857.7400000000052</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <v>410.59482758620766</v>
       </c>
       <c r="O47">
@@ -2867,37 +2865,37 @@
       <c r="C48">
         <v>59768</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>99214.87999999999</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>67.66</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>99282.54</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>45796.36</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>38977.5985</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>7527.6900000000005</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>4116.7000000000007</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>5796</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="1">
         <v>102214.34850000001</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="1">
         <v>-2931.8085000000137</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="1">
         <v>-421.23685344827783</v>
       </c>
       <c r="O48">
@@ -2923,37 +2921,37 @@
       <c r="C49">
         <v>65910</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>109410.59999999999</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>41</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>109451.59999999999</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>43003.89</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>41621.870000000003</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>7584.3100000000013</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>14525.8</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>2743</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="1">
         <v>109478.87000000001</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="1">
         <v>-27.270000000018626</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="1">
         <v>-3.9181034482785382</v>
       </c>
       <c r="O49">
@@ -2967,6 +2965,119 @@
       </c>
       <c r="R49">
         <v>0.54058036871936521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2022</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>63364</v>
+      </c>
+      <c r="D50" s="3">
+        <f>C50*1.66</f>
+        <v>105184.23999999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="F50" s="1">
+        <v>105254.23</v>
+      </c>
+      <c r="G50" s="1">
+        <v>47162.32</v>
+      </c>
+      <c r="H50" s="1">
+        <v>39185.93</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7438.73</v>
+      </c>
+      <c r="J50" s="1">
+        <v>6536.82</v>
+      </c>
+      <c r="K50" s="1">
+        <v>4570</v>
+      </c>
+      <c r="L50" s="1">
+        <v>104893.79999999999</v>
+      </c>
+      <c r="M50" s="1">
+        <v>360.43000000000757</v>
+      </c>
+      <c r="N50" s="1">
+        <v>51.785919540230971</v>
+      </c>
+      <c r="O50">
+        <v>5.6882456915599957E-3</v>
+      </c>
+      <c r="P50">
+        <v>500000</v>
+      </c>
+      <c r="Q50">
+        <v>270290.18435968261</v>
+      </c>
+      <c r="R50">
+        <v>0.54058036871936521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2022</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>58417</v>
+      </c>
+      <c r="D51" s="1">
+        <v>96972.22</v>
+      </c>
+      <c r="E51" s="1">
+        <v>84.99</v>
+      </c>
+      <c r="F51" s="1">
+        <v>97057.21</v>
+      </c>
+      <c r="G51" s="1">
+        <v>42679.5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>38528.239999999998</v>
+      </c>
+      <c r="I51" s="1">
+        <v>6906.6900000000005</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5347.84</v>
+      </c>
+      <c r="K51" s="1">
+        <v>5268</v>
+      </c>
+      <c r="L51" s="1">
+        <v>98730.26999999999</v>
+      </c>
+      <c r="M51" s="1">
+        <v>-1673.0599999999831</v>
+      </c>
+      <c r="N51" s="1">
+        <v>-240.38218390804354</v>
+      </c>
+      <c r="O51">
+        <v>-2.8639950699282456E-2</v>
+      </c>
+      <c r="P51">
+        <v>500000</v>
+      </c>
+      <c r="Q51">
+        <v>270341.97027922282</v>
+      </c>
+      <c r="R51">
+        <v>0.5406839405584456</v>
       </c>
     </row>
   </sheetData>

--- a/resumen.xlsx
+++ b/resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="15" windowWidth="10545" windowHeight="7260"/>
+    <workbookView xWindow="570" yWindow="-285" windowWidth="8925" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +432,7 @@
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -835,7 +836,7 @@
         <v>5009.24</v>
       </c>
       <c r="K9" s="1">
-        <v>8206.4021000000139</v>
+        <v>8206.4021000000103</v>
       </c>
       <c r="L9" s="1">
         <v>134475.80950000003</v>
@@ -3078,6 +3079,62 @@
       </c>
       <c r="R51">
         <v>0.5406839405584456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2022</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>61861</v>
+      </c>
+      <c r="D52" s="1">
+        <v>102689.26</v>
+      </c>
+      <c r="E52" s="1">
+        <v>88.83</v>
+      </c>
+      <c r="F52" s="1">
+        <v>102778.09</v>
+      </c>
+      <c r="G52" s="1">
+        <v>40491.550000000003</v>
+      </c>
+      <c r="H52" s="1">
+        <v>38302.550000000003</v>
+      </c>
+      <c r="I52" s="1">
+        <v>6896.36</v>
+      </c>
+      <c r="J52" s="1">
+        <v>7883.16</v>
+      </c>
+      <c r="K52" s="1">
+        <v>6284</v>
+      </c>
+      <c r="L52" s="1">
+        <v>99857.3</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2920.79</v>
+      </c>
+      <c r="N52" s="1">
+        <v>419.65</v>
+      </c>
+      <c r="O52">
+        <v>4.7215369942289871E-2</v>
+      </c>
+      <c r="P52" s="1">
+        <v>500000</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>270761.62</v>
+      </c>
+      <c r="R52">
+        <v>0.54152324802971008</v>
       </c>
     </row>
   </sheetData>

--- a/resumen.xlsx
+++ b/resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="-285" windowWidth="8925" windowHeight="7260"/>
+    <workbookView xWindow="570" yWindow="-285" windowWidth="12165" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,7 +3078,7 @@
       <c r="P51">
         <v>500000</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="4">
         <v>270341.97027922282</v>
       </c>
       <c r="R51">
@@ -3130,11 +3134,123 @@
       <c r="P52" s="1">
         <v>500000</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="4">
         <v>270761.62</v>
       </c>
       <c r="R52">
         <v>0.54152324802971008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2022</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>61993</v>
+      </c>
+      <c r="D53" s="1">
+        <v>102908.38</v>
+      </c>
+      <c r="E53" s="1">
+        <v>92.32</v>
+      </c>
+      <c r="F53" s="1">
+        <v>103000.7</v>
+      </c>
+      <c r="G53">
+        <v>42663.24</v>
+      </c>
+      <c r="H53">
+        <v>39531.170000000006</v>
+      </c>
+      <c r="I53">
+        <v>6917.77</v>
+      </c>
+      <c r="J53" s="1">
+        <v>5847.8</v>
+      </c>
+      <c r="K53" s="1">
+        <v>6558</v>
+      </c>
+      <c r="L53">
+        <v>101517.98000000001</v>
+      </c>
+      <c r="M53">
+        <v>1482.7199999999866</v>
+      </c>
+      <c r="N53" s="1">
+        <v>213.03448275861876</v>
+      </c>
+      <c r="O53">
+        <v>2.3917539076992348E-2</v>
+      </c>
+      <c r="P53">
+        <v>500000</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>270974.65849761362</v>
+      </c>
+      <c r="R53">
+        <v>0.54194931699522719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2022</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>61349</v>
+      </c>
+      <c r="D54" s="1">
+        <v>101839.34</v>
+      </c>
+      <c r="E54" s="1">
+        <v>84.99</v>
+      </c>
+      <c r="F54" s="1">
+        <v>101924.33</v>
+      </c>
+      <c r="G54" s="1">
+        <v>38879.949999999997</v>
+      </c>
+      <c r="H54" s="1">
+        <v>40261.050000000003</v>
+      </c>
+      <c r="I54" s="1">
+        <v>7010.62</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3484</v>
+      </c>
+      <c r="K54" s="1">
+        <v>6796</v>
+      </c>
+      <c r="L54" s="1">
+        <v>96431.62</v>
+      </c>
+      <c r="M54" s="1">
+        <v>5492.71</v>
+      </c>
+      <c r="N54" s="1">
+        <v>789.18</v>
+      </c>
+      <c r="O54" s="1">
+        <v>8.9532184713687374E-2</v>
+      </c>
+      <c r="P54" s="1">
+        <v>500000</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>271753.78000000003</v>
+      </c>
+      <c r="R54">
+        <v>0.54350756699522729</v>
       </c>
     </row>
   </sheetData>

--- a/resumen.xlsx
+++ b/resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="-285" windowWidth="12165" windowHeight="7260"/>
+    <workbookView xWindow="10710" yWindow="225" windowWidth="9795" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,12 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" topLeftCell="N46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,6 +3253,119 @@
       </c>
       <c r="R54">
         <v>0.54350756699522729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2022</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>69098</v>
+      </c>
+      <c r="D55" s="5">
+        <f>C55*1.66</f>
+        <v>114702.68</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>114702.68</v>
+      </c>
+      <c r="G55">
+        <v>49382.020000000004</v>
+      </c>
+      <c r="H55">
+        <v>42677.64</v>
+      </c>
+      <c r="I55">
+        <v>7216.52</v>
+      </c>
+      <c r="J55">
+        <v>4709.16</v>
+      </c>
+      <c r="K55">
+        <v>7288</v>
+      </c>
+      <c r="L55">
+        <v>111273.34000000001</v>
+      </c>
+      <c r="M55">
+        <v>3429.339999999982</v>
+      </c>
+      <c r="N55">
+        <v>492.72126436781349</v>
+      </c>
+      <c r="O55">
+        <v>4.963009059596489E-2</v>
+      </c>
+      <c r="P55">
+        <v>500000</v>
+      </c>
+      <c r="Q55">
+        <v>272246.50476198143</v>
+      </c>
+      <c r="R55">
+        <v>0.54449300952396285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2022</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>88241</v>
+      </c>
+      <c r="D56">
+        <v>146480.06</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>146480.06</v>
+      </c>
+      <c r="G56">
+        <v>56990.159999999996</v>
+      </c>
+      <c r="H56">
+        <v>45450.200000000004</v>
+      </c>
+      <c r="I56">
+        <v>7222.1299999999974</v>
+      </c>
+      <c r="J56">
+        <v>4730.5</v>
+      </c>
+      <c r="K56">
+        <v>10826</v>
+      </c>
+      <c r="L56">
+        <v>125218.98999999999</v>
+      </c>
+      <c r="M56">
+        <v>21261.070000000007</v>
+      </c>
+      <c r="N56">
+        <v>3054.7514367816102</v>
+      </c>
+      <c r="O56">
+        <v>0.24094321233893551</v>
+      </c>
+      <c r="P56">
+        <v>500000</v>
+      </c>
+      <c r="Q56">
+        <v>275066.0550493378</v>
+      </c>
+      <c r="R56">
+        <v>0.55013211009867558</v>
       </c>
     </row>
   </sheetData>

--- a/resumen.xlsx
+++ b/resumen.xlsx
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,6 +3366,62 @@
       </c>
       <c r="R56">
         <v>0.55013211009867558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2022</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>76421</v>
+      </c>
+      <c r="D57" s="1">
+        <v>126858.86</v>
+      </c>
+      <c r="E57" s="1">
+        <v>76.5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>127005.36</v>
+      </c>
+      <c r="G57" s="1">
+        <v>49170.55</v>
+      </c>
+      <c r="H57" s="1">
+        <v>44880.77</v>
+      </c>
+      <c r="I57" s="1">
+        <v>7139</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2385.8000000000002</v>
+      </c>
+      <c r="K57" s="1">
+        <v>8980</v>
+      </c>
+      <c r="L57" s="1">
+        <v>112556.12</v>
+      </c>
+      <c r="M57" s="1">
+        <v>14449.24</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2076.04</v>
+      </c>
+      <c r="O57">
+        <v>0.18907420735138236</v>
+      </c>
+      <c r="P57" s="1">
+        <v>500000</v>
+      </c>
+      <c r="Q57">
+        <v>277166.14269301592</v>
+      </c>
+      <c r="R57">
+        <v>0.55433228538603185</v>
       </c>
     </row>
   </sheetData>
